--- a/server8/pre_info_new.xlsx
+++ b/server8/pre_info_new.xlsx
@@ -1407,17 +1407,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.25"/>
-    <col min="2" max="2" width="0" hidden="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
     <col min="3" max="3" width="12.625"/>
     <col min="4" max="5" width="12.375"/>
-    <col min="6" max="6" width="0" hidden="1"/>
+    <col min="6" max="6" width="19.125" customWidth="1"/>
     <col min="7" max="7" width="21.875"/>
     <col min="8" max="8" width="21.875" style="13"/>
     <col min="9" max="10" width="25.5" style="13"/>
@@ -3009,8 +3009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3240,7 +3240,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="22">
-        <v>42.872148281249999</v>
+        <v>50</v>
       </c>
       <c r="D6" s="22">
         <v>35</v>
@@ -3259,7 +3259,7 @@
         <v>46.298000000000002</v>
       </c>
       <c r="I6" s="22">
-        <v>24.1120485</v>
+        <v>50</v>
       </c>
       <c r="J6">
         <v>28.05</v>
@@ -3320,7 +3320,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="22">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D8" s="22">
         <v>55</v>
@@ -3339,7 +3339,7 @@
         <v>42.953084354922403</v>
       </c>
       <c r="I8" s="22">
-        <v>23.7585555</v>
+        <v>33</v>
       </c>
       <c r="J8">
         <v>29.7</v>
@@ -3458,7 +3458,7 @@
         <v>33</v>
       </c>
       <c r="I11" s="22">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J11">
         <v>13.2</v>
@@ -3498,7 +3498,7 @@
         <v>26</v>
       </c>
       <c r="I12" s="22">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J12">
         <v>13.2</v>
@@ -3564,7 +3564,7 @@
         <v>27</v>
       </c>
       <c r="E14" s="22">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F14">
         <v>679250</v>
@@ -3654,10 +3654,10 @@
         <v>594</v>
       </c>
       <c r="H16" s="22">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I16" s="22">
-        <v>13.615038</v>
+        <v>28</v>
       </c>
       <c r="J16">
         <v>14.85</v>
@@ -3736,7 +3736,7 @@
         <v>31.951753453723299</v>
       </c>
       <c r="I18" s="22">
-        <v>29.336989275000001</v>
+        <v>34</v>
       </c>
       <c r="J18">
         <v>26.4</v>
@@ -3797,7 +3797,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="22">
-        <v>22.5</v>
+        <v>31</v>
       </c>
       <c r="D20" s="22">
         <v>33</v>
@@ -3816,7 +3816,7 @@
         <v>49.462887821740402</v>
       </c>
       <c r="I20" s="22">
-        <v>18.805825575</v>
+        <v>36</v>
       </c>
       <c r="J20">
         <v>18.149999999999999</v>
@@ -3975,7 +3975,7 @@
         <v>48.8985466891939</v>
       </c>
       <c r="I24" s="22">
-        <v>14.997961462499999</v>
+        <v>33</v>
       </c>
       <c r="J24">
         <v>19.8</v>
@@ -4115,7 +4115,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="22">
-        <v>25.5</v>
+        <v>31</v>
       </c>
       <c r="D28" s="22">
         <v>48</v>
@@ -4134,7 +4134,7 @@
         <v>41.265919611481998</v>
       </c>
       <c r="I28" s="22">
-        <v>15.9164614125</v>
+        <v>39</v>
       </c>
       <c r="J28">
         <v>14.85</v>
@@ -4194,13 +4194,13 @@
         <v>1</v>
       </c>
       <c r="C30" s="22">
-        <v>32.801112000000003</v>
+        <v>45</v>
       </c>
       <c r="D30" s="22">
         <v>66</v>
       </c>
       <c r="E30" s="22">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F30">
         <v>141075</v>
@@ -4210,10 +4210,10 @@
         <v>1585</v>
       </c>
       <c r="H30" s="22">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="I30" s="22">
-        <v>37.356358049999997</v>
+        <v>47</v>
       </c>
       <c r="J30">
         <v>34.65</v>
@@ -4253,7 +4253,7 @@
         <v>44.605861068498697</v>
       </c>
       <c r="I31" s="22">
-        <v>30.943450275</v>
+        <v>36</v>
       </c>
       <c r="J31">
         <v>23.1</v>
@@ -4274,7 +4274,7 @@
         <v>3</v>
       </c>
       <c r="C32" s="22">
-        <v>19.5</v>
+        <v>35</v>
       </c>
       <c r="D32" s="22">
         <v>56</v>
@@ -4293,7 +4293,7 @@
         <v>48.693079203459803</v>
       </c>
       <c r="I32" s="22">
-        <v>24.094814175</v>
+        <v>35</v>
       </c>
       <c r="J32">
         <v>26.4</v>
@@ -4433,7 +4433,7 @@
         <v>3</v>
       </c>
       <c r="C36" s="22">
-        <v>19.5</v>
+        <v>35</v>
       </c>
       <c r="D36" s="22">
         <v>45</v>
@@ -4452,7 +4452,7 @@
         <v>53.039824126338097</v>
       </c>
       <c r="I36" s="22">
-        <v>15.1958251125</v>
+        <v>35</v>
       </c>
       <c r="J36">
         <v>26.4</v>
@@ -4571,7 +4571,7 @@
         <v>31.4039024539948</v>
       </c>
       <c r="I39" s="22">
-        <v>27.840658950000002</v>
+        <v>29</v>
       </c>
       <c r="J39">
         <v>16.5</v>
@@ -4592,7 +4592,7 @@
         <v>3</v>
       </c>
       <c r="C40" s="22">
-        <v>25.5</v>
+        <v>29</v>
       </c>
       <c r="D40" s="22">
         <v>44</v>
@@ -4611,7 +4611,7 @@
         <v>50.8331028360967</v>
       </c>
       <c r="I40" s="22">
-        <v>22.541994675000002</v>
+        <v>30</v>
       </c>
       <c r="J40">
         <v>24.75</v>
@@ -4664,7 +4664,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K41"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/server8/pre_info_new.xlsx
+++ b/server8/pre_info_new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="704" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="704"/>
   </bookViews>
   <sheets>
     <sheet name="sales_rep" sheetId="1" r:id="rId1"/>
@@ -91,328 +91,330 @@
     <t>pp_target_revenue_realization_by_sr</t>
   </si>
   <si>
+    <t>8年销售经验，在各类医院和产品的销售中积累了丰富的经验。善于发现客户需求，善于探查客户心理</t>
+  </si>
+  <si>
+    <t>医学院校临床专业毕业，对疾病知识有一定的基础，工作中积累了丰富的产品知识</t>
+  </si>
+  <si>
+    <t>加入公司3年，没有得到升职，最近由于同事得到提升而垂头丧气，对个人未来发展感到茫然</t>
+  </si>
+  <si>
+    <t>senior</t>
+  </si>
+  <si>
+    <t>小兰</t>
+  </si>
+  <si>
+    <t>5年销售经验，熟练运用拜访技巧，善于发现客户需求，可以敏锐的发现业务机会</t>
+  </si>
+  <si>
+    <t>化学专业毕业，有较强的学习能力，工作中积累了丰富的产品知识</t>
+  </si>
+  <si>
+    <t>加入公司2年，工作积极认真，希望在公司长期发展</t>
+  </si>
+  <si>
+    <t>middle</t>
+  </si>
+  <si>
+    <t>小白</t>
+  </si>
+  <si>
+    <t>2年销售经验，以前的公司没有提供系统的销售培训，拜访技巧上比较随意，只关注客户关系，缺乏专业推广的能力</t>
+  </si>
+  <si>
+    <t>英语专业毕业，有较强的学习能力，很聪明</t>
+  </si>
+  <si>
+    <t>加入公司不到1年，认为目前的公司是个人发展的很好的平台，愿意接受挑战</t>
+  </si>
+  <si>
+    <t>junior</t>
+  </si>
+  <si>
+    <t>小木</t>
+  </si>
+  <si>
+    <t>3年销售经验，一对一拜访技巧上比较简单，只关注产品宣传和会议活动，但人际敏感度较低</t>
+  </si>
+  <si>
+    <t>药学专业研究生毕业，有一定学习能力</t>
+  </si>
+  <si>
+    <t>加入公司不到1年，工作积极主动，做事认真可靠</t>
+  </si>
+  <si>
+    <t>5年销售经验，善于发现客户需求，并利用各种沟通方式实现销售</t>
+  </si>
+  <si>
+    <t>生物专业毕业，工作中积累了丰富的产品知识</t>
+  </si>
+  <si>
+    <t>加入公司2年多，工作态度时好时坏，不愿意承担压力</t>
+  </si>
+  <si>
+    <t>prod_code</t>
+  </si>
+  <si>
+    <t>品牌</t>
+  </si>
+  <si>
+    <t>类别</t>
+  </si>
+  <si>
+    <t>上市时间</t>
+  </si>
+  <si>
+    <t>单价（公司考核价）</t>
+  </si>
+  <si>
+    <t>单位成本</t>
+  </si>
+  <si>
+    <t>医保</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>美素</t>
+  </si>
+  <si>
+    <t>口服抗生素</t>
+  </si>
+  <si>
+    <t>甲类</t>
+  </si>
+  <si>
+    <t>首仿</t>
+  </si>
+  <si>
+    <t>美平</t>
+  </si>
+  <si>
+    <t>一代降糖药</t>
+  </si>
+  <si>
+    <t>乙类</t>
+  </si>
+  <si>
+    <t>美乐</t>
+  </si>
+  <si>
+    <t>三代降糖药</t>
+  </si>
+  <si>
+    <t>美通</t>
+  </si>
+  <si>
+    <t>皮肤药</t>
+  </si>
+  <si>
+    <t>自费</t>
+  </si>
+  <si>
+    <t>原研</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>hosp_code</t>
+  </si>
+  <si>
+    <t>区域</t>
+  </si>
+  <si>
+    <t>产品</t>
+  </si>
+  <si>
+    <t>周期0</t>
+  </si>
+  <si>
+    <t>周期1</t>
+  </si>
+  <si>
+    <t>周期2</t>
+  </si>
+  <si>
+    <t>周期3</t>
+  </si>
+  <si>
+    <t>周期4</t>
+  </si>
+  <si>
+    <t>人民医院</t>
+  </si>
+  <si>
+    <t>法拉市市区</t>
+  </si>
+  <si>
+    <t>三级</t>
+  </si>
+  <si>
+    <t>军区医院</t>
+  </si>
+  <si>
+    <t>二级</t>
+  </si>
+  <si>
+    <t>中日医院</t>
+  </si>
+  <si>
+    <t>法拉市郊区</t>
+  </si>
+  <si>
+    <t>铁路医院</t>
+  </si>
+  <si>
+    <t>海港医院</t>
+  </si>
+  <si>
+    <t>第六医院</t>
+  </si>
+  <si>
+    <t>小营医院</t>
+  </si>
+  <si>
+    <t>一级</t>
+  </si>
+  <si>
+    <t>光华医院</t>
+  </si>
+  <si>
+    <t>西河医院</t>
+  </si>
+  <si>
+    <t>大学医院</t>
+  </si>
+  <si>
+    <t>pp_sr_sales_performance</t>
+  </si>
+  <si>
+    <t>pp_deployment_quality_index</t>
+  </si>
+  <si>
+    <t>pp_customer_relationship_index</t>
+  </si>
+  <si>
+    <t>pp_real_revenue</t>
+  </si>
+  <si>
+    <t>pp_real_volume</t>
+  </si>
+  <si>
+    <t>pp_promotional_support_index</t>
+  </si>
+  <si>
+    <t>pp_sales_performance</t>
+  </si>
+  <si>
+    <t>pp_offer_attractiveness</t>
+  </si>
+  <si>
+    <t>pp_acc_offer_attractiveness</t>
+  </si>
+  <si>
+    <t>pp_acc_success_value</t>
+  </si>
+  <si>
+    <t>这是一家三级医院。1200张病床。外科和呼吸科很强，抗生素使用量很大。内分泌科病人量大。降糖药使用较多。最近院内临床观察结果公布，证明三代降糖药效果突出，医生逐步替代一代降糖药。</t>
+  </si>
+  <si>
+    <t>这是一家三级医院。1000张病床。外科和呼吸科很强，抗生素使用量很大。内分泌科病人量大。降糖药使用较多。最近院内临床观察结果公布，证明三代降糖药效果突出，医生逐步替代一代降糖药。</t>
+  </si>
+  <si>
+    <t>新的皮肤病用药进入医院开始销售，推动皮肤市场增长</t>
+  </si>
+  <si>
+    <t>保险费用紧张，口服抗生素受到限制，市场出现明显负增长。降糖药推荐病人药店自己购买，院内市场下降。</t>
+  </si>
+  <si>
+    <t>这是一家三级医院。700张病床。建立全国皮肤研究中心，打造皮肤科研能力，是皮肤领域的最大医院。作为综合医院，抗生素和糖尿病产品也使用。</t>
+  </si>
+  <si>
+    <t>由于新扩建的外科病房投入使用，外科病人数量增长一倍。新的皮肤病用药进入医院开始销售，推动皮肤市场增长</t>
+  </si>
+  <si>
+    <t>这是一家二级医院。500张病床。最近从一家三级大医院调来一位新院长，医院硬件软件不断提高，病人量出现20%+明显增长.但整体上病人的支付能力不高。</t>
+  </si>
+  <si>
+    <t>新的皮肤病用药进入医院开始销售，推动市场增长</t>
+  </si>
+  <si>
+    <t>最近引进的国外工作的内分泌主任上任后，提倡三代降糖药的使用。</t>
+  </si>
+  <si>
+    <t>这是一家二级医院，300张病床。外科病人多，外科医生习惯滥用抗生素。没有皮肤科。内分泌临床习惯使用一代降糖药。</t>
+  </si>
+  <si>
+    <t>针对抗生素使用过快的问题，药剂科提出了抗生素处方权限管理的限制措施，导致抗生素处方下降</t>
+  </si>
+  <si>
+    <t>这是一家二级医院，300张病床。外科和内科都使用一些抗生素。皮肤科很小。内分泌临床习惯使用一代降糖药，医生对三代降糖药不认可，不愿意使用，病人支付能力低也阻碍了三代的使用.</t>
+  </si>
+  <si>
+    <t>这是一家一级医院，100张病床。没有皮肤科。但地处城市中心位置，病人较多。医院在糖尿病防治方面进行投资，吸引更多病人。但老病人多。一代降糖药更受到欢迎。</t>
+  </si>
+  <si>
+    <t>这是一家二级医院，250张病床。外科和内科都使用一些抗生素。皮肤科很小。内分泌临床习惯使用一代降糖药，医生对三代降糖药不认可，不愿意使用，病人支付能力低也阻碍了三代的使用.</t>
+  </si>
+  <si>
+    <t>这是一家一级医院，100张病床。新院长到来后，医院硬件软件不断提高，病人量出现20%+明显增长。着力打造皮肤科特色。医院的皮肤专家不断增加，知名度不断提升，更多皮肤病人来就医。</t>
+  </si>
+  <si>
+    <t>这是一家一级医院，100张病床。没有皮肤科。病人不多。</t>
+  </si>
+  <si>
+    <t>phase</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>budget</t>
+  </si>
+  <si>
+    <t>real_revenue</t>
+  </si>
+  <si>
+    <t>real_volume</t>
+  </si>
+  <si>
+    <t>sr_sales_performance</t>
+  </si>
+  <si>
+    <t>deployment_quality_index</t>
+  </si>
+  <si>
+    <t>promotional_support_index</t>
+  </si>
+  <si>
+    <t>customer_relationship_index</t>
+  </si>
+  <si>
+    <t>sales_performance</t>
+  </si>
+  <si>
+    <t>offer_attractiveness</t>
+  </si>
+  <si>
+    <t>sales_skills_index</t>
+  </si>
+  <si>
+    <t>product_knowledge_index</t>
+  </si>
+  <si>
+    <t>motivation_index</t>
+  </si>
+  <si>
+    <t>小青</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>小宋</t>
-  </si>
-  <si>
-    <t>8年销售经验，在各类医院和产品的销售中积累了丰富的经验。善于发现客户需求，善于探查客户心理</t>
-  </si>
-  <si>
-    <t>医学院校临床专业毕业，对疾病知识有一定的基础，工作中积累了丰富的产品知识</t>
-  </si>
-  <si>
-    <t>加入公司3年，没有得到升职，最近由于同事得到提升而垂头丧气，对个人未来发展感到茫然</t>
-  </si>
-  <si>
-    <t>senior</t>
-  </si>
-  <si>
-    <t>小兰</t>
-  </si>
-  <si>
-    <t>5年销售经验，熟练运用拜访技巧，善于发现客户需求，可以敏锐的发现业务机会</t>
-  </si>
-  <si>
-    <t>化学专业毕业，有较强的学习能力，工作中积累了丰富的产品知识</t>
-  </si>
-  <si>
-    <t>加入公司2年，工作积极认真，希望在公司长期发展</t>
-  </si>
-  <si>
-    <t>middle</t>
-  </si>
-  <si>
-    <t>小白</t>
-  </si>
-  <si>
-    <t>2年销售经验，以前的公司没有提供系统的销售培训，拜访技巧上比较随意，只关注客户关系，缺乏专业推广的能力</t>
-  </si>
-  <si>
-    <t>英语专业毕业，有较强的学习能力，很聪明</t>
-  </si>
-  <si>
-    <t>加入公司不到1年，认为目前的公司是个人发展的很好的平台，愿意接受挑战</t>
-  </si>
-  <si>
-    <t>junior</t>
-  </si>
-  <si>
-    <t>小木</t>
-  </si>
-  <si>
-    <t>3年销售经验，一对一拜访技巧上比较简单，只关注产品宣传和会议活动，但人际敏感度较低</t>
-  </si>
-  <si>
-    <t>药学专业研究生毕业，有一定学习能力</t>
-  </si>
-  <si>
-    <t>加入公司不到1年，工作积极主动，做事认真可靠</t>
-  </si>
-  <si>
-    <t>小青</t>
-  </si>
-  <si>
-    <t>5年销售经验，善于发现客户需求，并利用各种沟通方式实现销售</t>
-  </si>
-  <si>
-    <t>生物专业毕业，工作中积累了丰富的产品知识</t>
-  </si>
-  <si>
-    <t>加入公司2年多，工作态度时好时坏，不愿意承担压力</t>
-  </si>
-  <si>
-    <t>prod_code</t>
-  </si>
-  <si>
-    <t>品牌</t>
-  </si>
-  <si>
-    <t>类别</t>
-  </si>
-  <si>
-    <t>上市时间</t>
-  </si>
-  <si>
-    <t>单价（公司考核价）</t>
-  </si>
-  <si>
-    <t>单位成本</t>
-  </si>
-  <si>
-    <t>医保</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>美素</t>
-  </si>
-  <si>
-    <t>口服抗生素</t>
-  </si>
-  <si>
-    <t>甲类</t>
-  </si>
-  <si>
-    <t>首仿</t>
-  </si>
-  <si>
-    <t>美平</t>
-  </si>
-  <si>
-    <t>一代降糖药</t>
-  </si>
-  <si>
-    <t>乙类</t>
-  </si>
-  <si>
-    <t>美乐</t>
-  </si>
-  <si>
-    <t>三代降糖药</t>
-  </si>
-  <si>
-    <t>美通</t>
-  </si>
-  <si>
-    <t>皮肤药</t>
-  </si>
-  <si>
-    <t>自费</t>
-  </si>
-  <si>
-    <t>原研</t>
-  </si>
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>hosp_code</t>
-  </si>
-  <si>
-    <t>区域</t>
-  </si>
-  <si>
-    <t>产品</t>
-  </si>
-  <si>
-    <t>周期0</t>
-  </si>
-  <si>
-    <t>周期1</t>
-  </si>
-  <si>
-    <t>周期2</t>
-  </si>
-  <si>
-    <t>周期3</t>
-  </si>
-  <si>
-    <t>周期4</t>
-  </si>
-  <si>
-    <t>人民医院</t>
-  </si>
-  <si>
-    <t>法拉市市区</t>
-  </si>
-  <si>
-    <t>三级</t>
-  </si>
-  <si>
-    <t>军区医院</t>
-  </si>
-  <si>
-    <t>二级</t>
-  </si>
-  <si>
-    <t>中日医院</t>
-  </si>
-  <si>
-    <t>法拉市郊区</t>
-  </si>
-  <si>
-    <t>铁路医院</t>
-  </si>
-  <si>
-    <t>海港医院</t>
-  </si>
-  <si>
-    <t>第六医院</t>
-  </si>
-  <si>
-    <t>小营医院</t>
-  </si>
-  <si>
-    <t>一级</t>
-  </si>
-  <si>
-    <t>光华医院</t>
-  </si>
-  <si>
-    <t>西河医院</t>
-  </si>
-  <si>
-    <t>大学医院</t>
-  </si>
-  <si>
-    <t>pp_sr_sales_performance</t>
-  </si>
-  <si>
-    <t>pp_deployment_quality_index</t>
-  </si>
-  <si>
-    <t>pp_customer_relationship_index</t>
-  </si>
-  <si>
-    <t>pp_real_revenue</t>
-  </si>
-  <si>
-    <t>pp_real_volume</t>
-  </si>
-  <si>
-    <t>pp_promotional_support_index</t>
-  </si>
-  <si>
-    <t>pp_sales_performance</t>
-  </si>
-  <si>
-    <t>pp_offer_attractiveness</t>
-  </si>
-  <si>
-    <t>pp_acc_offer_attractiveness</t>
-  </si>
-  <si>
-    <t>pp_acc_success_value</t>
-  </si>
-  <si>
-    <t>这是一家三级医院。1200张病床。外科和呼吸科很强，抗生素使用量很大。内分泌科病人量大。降糖药使用较多。最近院内临床观察结果公布，证明三代降糖药效果突出，医生逐步替代一代降糖药。</t>
-  </si>
-  <si>
-    <t>这是一家三级医院。1000张病床。外科和呼吸科很强，抗生素使用量很大。内分泌科病人量大。降糖药使用较多。最近院内临床观察结果公布，证明三代降糖药效果突出，医生逐步替代一代降糖药。</t>
-  </si>
-  <si>
-    <t>新的皮肤病用药进入医院开始销售，推动皮肤市场增长</t>
-  </si>
-  <si>
-    <t>保险费用紧张，口服抗生素受到限制，市场出现明显负增长。降糖药推荐病人药店自己购买，院内市场下降。</t>
-  </si>
-  <si>
-    <t>这是一家三级医院。700张病床。建立全国皮肤研究中心，打造皮肤科研能力，是皮肤领域的最大医院。作为综合医院，抗生素和糖尿病产品也使用。</t>
-  </si>
-  <si>
-    <t>由于新扩建的外科病房投入使用，外科病人数量增长一倍。新的皮肤病用药进入医院开始销售，推动皮肤市场增长</t>
-  </si>
-  <si>
-    <t>这是一家二级医院。500张病床。最近从一家三级大医院调来一位新院长，医院硬件软件不断提高，病人量出现20%+明显增长.但整体上病人的支付能力不高。</t>
-  </si>
-  <si>
-    <t>新的皮肤病用药进入医院开始销售，推动市场增长</t>
-  </si>
-  <si>
-    <t>最近引进的国外工作的内分泌主任上任后，提倡三代降糖药的使用。</t>
-  </si>
-  <si>
-    <t>这是一家二级医院，300张病床。外科病人多，外科医生习惯滥用抗生素。没有皮肤科。内分泌临床习惯使用一代降糖药。</t>
-  </si>
-  <si>
-    <t>针对抗生素使用过快的问题，药剂科提出了抗生素处方权限管理的限制措施，导致抗生素处方下降</t>
-  </si>
-  <si>
-    <t>这是一家二级医院，300张病床。外科和内科都使用一些抗生素。皮肤科很小。内分泌临床习惯使用一代降糖药，医生对三代降糖药不认可，不愿意使用，病人支付能力低也阻碍了三代的使用.</t>
-  </si>
-  <si>
-    <t>这是一家一级医院，100张病床。没有皮肤科。但地处城市中心位置，病人较多。医院在糖尿病防治方面进行投资，吸引更多病人。但老病人多。一代降糖药更受到欢迎。</t>
-  </si>
-  <si>
-    <t>这是一家二级医院，250张病床。外科和内科都使用一些抗生素。皮肤科很小。内分泌临床习惯使用一代降糖药，医生对三代降糖药不认可，不愿意使用，病人支付能力低也阻碍了三代的使用.</t>
-  </si>
-  <si>
-    <t>这是一家一级医院，100张病床。新院长到来后，医院硬件软件不断提高，病人量出现20%+明显增长。着力打造皮肤科特色。医院的皮肤专家不断增加，知名度不断提升，更多皮肤病人来就医。</t>
-  </si>
-  <si>
-    <t>这是一家一级医院，100张病床。没有皮肤科。病人不多。</t>
-  </si>
-  <si>
-    <t>phase</t>
-  </si>
-  <si>
-    <t>target</t>
-  </si>
-  <si>
-    <t>budget</t>
-  </si>
-  <si>
-    <t>real_revenue</t>
-  </si>
-  <si>
-    <t>real_volume</t>
-  </si>
-  <si>
-    <t>sr_sales_performance</t>
-  </si>
-  <si>
-    <t>deployment_quality_index</t>
-  </si>
-  <si>
-    <t>promotional_support_index</t>
-  </si>
-  <si>
-    <t>customer_relationship_index</t>
-  </si>
-  <si>
-    <t>sales_performance</t>
-  </si>
-  <si>
-    <t>offer_attractiveness</t>
-  </si>
-  <si>
-    <t>sales_skills_index</t>
-  </si>
-  <si>
-    <t>product_knowledge_index</t>
-  </si>
-  <si>
-    <t>motivation_index</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -929,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1036,19 +1038,19 @@
     </row>
     <row r="2" spans="1:13" ht="57">
       <c r="A2" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="F2" s="6">
         <v>2910</v>
@@ -1077,19 +1079,19 @@
     </row>
     <row r="3" spans="1:13" ht="42.75">
       <c r="A3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="F3" s="6">
         <v>2080</v>
@@ -1101,7 +1103,7 @@
         <v>5600000</v>
       </c>
       <c r="I3" s="6">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="J3" s="6">
         <v>50</v>
@@ -1118,19 +1120,19 @@
     </row>
     <row r="4" spans="1:13" ht="42.75">
       <c r="A4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="F4" s="6">
         <v>794</v>
@@ -1159,19 +1161,19 @@
     </row>
     <row r="5" spans="1:13" ht="42.75">
       <c r="A5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="6">
         <v>1132</v>
@@ -1200,19 +1202,19 @@
     </row>
     <row r="6" spans="1:13" ht="28.5">
       <c r="A6" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="6">
         <v>1686</v>
@@ -1224,7 +1226,7 @@
         <v>5000000</v>
       </c>
       <c r="I6" s="6">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="J6" s="6">
         <v>60</v>
@@ -1268,28 +1270,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14.25">
       <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25">
@@ -1297,10 +1299,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D2" s="10">
         <v>2000</v>
@@ -1312,10 +1314,10 @@
         <v>44</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25">
@@ -1323,10 +1325,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3" s="10">
         <v>2003</v>
@@ -1338,10 +1340,10 @@
         <v>31</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25">
@@ -1349,10 +1351,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D4" s="10">
         <v>2011</v>
@@ -1364,10 +1366,10 @@
         <v>30</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25">
@@ -1375,10 +1377,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D5" s="10">
         <v>2017</v>
@@ -1390,10 +1392,10 @@
         <v>11</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1429,54 +1431,54 @@
   <sheetData>
     <row r="1" spans="1:11" ht="14.25">
       <c r="A1" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="D1" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="F1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="H1" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="15" t="s">
+      <c r="I1" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>63</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.25">
       <c r="A2" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2" s="18">
         <v>1</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F2" s="18">
         <v>1</v>
@@ -1503,19 +1505,19 @@
     </row>
     <row r="3" spans="1:11" ht="14.25">
       <c r="A3" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B3" s="18">
         <v>1</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F3" s="18">
         <v>2</v>
@@ -1542,19 +1544,19 @@
     </row>
     <row r="4" spans="1:11" ht="14.25">
       <c r="A4" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B4" s="18">
         <v>1</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F4" s="18">
         <v>3</v>
@@ -1581,19 +1583,19 @@
     </row>
     <row r="5" spans="1:11" ht="14.25">
       <c r="A5" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B5" s="18">
         <v>1</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F5" s="18">
         <v>4</v>
@@ -1620,19 +1622,19 @@
     </row>
     <row r="6" spans="1:11" ht="14.25">
       <c r="A6" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B6" s="18">
         <v>2</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F6" s="18">
         <v>1</v>
@@ -1659,19 +1661,19 @@
     </row>
     <row r="7" spans="1:11" ht="14.25">
       <c r="A7" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B7" s="18">
         <v>2</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F7" s="18">
         <v>2</v>
@@ -1698,19 +1700,19 @@
     </row>
     <row r="8" spans="1:11" ht="14.25">
       <c r="A8" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B8" s="18">
         <v>2</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F8" s="18">
         <v>3</v>
@@ -1737,19 +1739,19 @@
     </row>
     <row r="9" spans="1:11" ht="14.25">
       <c r="A9" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B9" s="18">
         <v>2</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F9" s="18">
         <v>4</v>
@@ -1776,19 +1778,19 @@
     </row>
     <row r="10" spans="1:11" ht="14.25">
       <c r="A10" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B10" s="18">
         <v>3</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F10" s="18">
         <v>1</v>
@@ -1815,19 +1817,19 @@
     </row>
     <row r="11" spans="1:11" ht="14.25">
       <c r="A11" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B11" s="18">
         <v>3</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F11" s="18">
         <v>2</v>
@@ -1854,19 +1856,19 @@
     </row>
     <row r="12" spans="1:11" ht="14.25">
       <c r="A12" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B12" s="18">
         <v>3</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F12" s="18">
         <v>3</v>
@@ -1893,19 +1895,19 @@
     </row>
     <row r="13" spans="1:11" ht="14.25">
       <c r="A13" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B13" s="18">
         <v>3</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F13" s="18">
         <v>4</v>
@@ -1932,19 +1934,19 @@
     </row>
     <row r="14" spans="1:11" ht="14.25">
       <c r="A14" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B14" s="18">
         <v>4</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F14" s="18">
         <v>1</v>
@@ -1971,19 +1973,19 @@
     </row>
     <row r="15" spans="1:11" ht="14.25">
       <c r="A15" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B15" s="18">
         <v>4</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F15" s="18">
         <v>2</v>
@@ -2010,19 +2012,19 @@
     </row>
     <row r="16" spans="1:11" ht="14.25">
       <c r="A16" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B16" s="18">
         <v>4</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F16" s="18">
         <v>3</v>
@@ -2049,19 +2051,19 @@
     </row>
     <row r="17" spans="1:11" ht="14.25">
       <c r="A17" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B17" s="18">
         <v>4</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F17" s="18">
         <v>4</v>
@@ -2088,19 +2090,19 @@
     </row>
     <row r="18" spans="1:11" ht="14.25">
       <c r="A18" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B18" s="18">
         <v>5</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F18" s="18">
         <v>1</v>
@@ -2127,19 +2129,19 @@
     </row>
     <row r="19" spans="1:11" ht="14.25">
       <c r="A19" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B19" s="18">
         <v>5</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F19" s="18">
         <v>2</v>
@@ -2166,19 +2168,19 @@
     </row>
     <row r="20" spans="1:11" ht="14.25">
       <c r="A20" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B20" s="18">
         <v>5</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F20" s="18">
         <v>3</v>
@@ -2205,19 +2207,19 @@
     </row>
     <row r="21" spans="1:11" ht="14.25">
       <c r="A21" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B21" s="18">
         <v>5</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F21" s="18">
         <v>4</v>
@@ -2244,19 +2246,19 @@
     </row>
     <row r="22" spans="1:11" ht="14.25">
       <c r="A22" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B22" s="18">
         <v>6</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F22" s="18">
         <v>1</v>
@@ -2283,19 +2285,19 @@
     </row>
     <row r="23" spans="1:11" ht="14.25">
       <c r="A23" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B23" s="18">
         <v>6</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F23" s="18">
         <v>2</v>
@@ -2322,19 +2324,19 @@
     </row>
     <row r="24" spans="1:11" ht="14.25">
       <c r="A24" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B24" s="18">
         <v>6</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F24" s="18">
         <v>3</v>
@@ -2361,19 +2363,19 @@
     </row>
     <row r="25" spans="1:11" ht="14.25">
       <c r="A25" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B25" s="18">
         <v>6</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F25" s="18">
         <v>4</v>
@@ -2389,19 +2391,19 @@
     </row>
     <row r="26" spans="1:11" ht="14.25">
       <c r="A26" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B26" s="18">
         <v>7</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F26" s="18">
         <v>1</v>
@@ -2428,19 +2430,19 @@
     </row>
     <row r="27" spans="1:11" ht="14.25">
       <c r="A27" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B27" s="18">
         <v>7</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F27" s="18">
         <v>2</v>
@@ -2467,19 +2469,19 @@
     </row>
     <row r="28" spans="1:11" ht="14.25">
       <c r="A28" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B28" s="18">
         <v>7</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F28" s="18">
         <v>3</v>
@@ -2506,19 +2508,19 @@
     </row>
     <row r="29" spans="1:11" ht="14.25">
       <c r="A29" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B29" s="18">
         <v>7</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F29" s="18">
         <v>4</v>
@@ -2540,19 +2542,19 @@
     </row>
     <row r="30" spans="1:11" ht="14.25">
       <c r="A30" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B30" s="18">
         <v>8</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F30" s="18">
         <v>1</v>
@@ -2579,19 +2581,19 @@
     </row>
     <row r="31" spans="1:11" ht="14.25">
       <c r="A31" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B31" s="18">
         <v>8</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F31" s="18">
         <v>2</v>
@@ -2618,19 +2620,19 @@
     </row>
     <row r="32" spans="1:11" ht="14.25">
       <c r="A32" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B32" s="18">
         <v>8</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F32" s="18">
         <v>3</v>
@@ -2657,19 +2659,19 @@
     </row>
     <row r="33" spans="1:11" ht="14.25">
       <c r="A33" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B33" s="18">
         <v>8</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F33" s="18">
         <v>4</v>
@@ -2688,19 +2690,19 @@
     </row>
     <row r="34" spans="1:11" ht="14.25">
       <c r="A34" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B34" s="18">
         <v>9</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F34" s="18">
         <v>1</v>
@@ -2727,19 +2729,19 @@
     </row>
     <row r="35" spans="1:11" ht="14.25">
       <c r="A35" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B35" s="18">
         <v>9</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F35" s="18">
         <v>2</v>
@@ -2766,19 +2768,19 @@
     </row>
     <row r="36" spans="1:11" ht="14.25">
       <c r="A36" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B36" s="18">
         <v>9</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F36" s="18">
         <v>3</v>
@@ -2805,19 +2807,19 @@
     </row>
     <row r="37" spans="1:11" ht="14.25">
       <c r="A37" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B37" s="18">
         <v>9</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F37" s="18">
         <v>4</v>
@@ -2844,19 +2846,19 @@
     </row>
     <row r="38" spans="1:11" ht="14.25">
       <c r="A38" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B38" s="18">
         <v>10</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F38" s="18">
         <v>1</v>
@@ -2883,19 +2885,19 @@
     </row>
     <row r="39" spans="1:11" ht="14.25">
       <c r="A39" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B39" s="18">
         <v>10</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F39" s="18">
         <v>2</v>
@@ -2922,19 +2924,19 @@
     </row>
     <row r="40" spans="1:11" ht="14.25">
       <c r="A40" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B40" s="18">
         <v>10</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F40" s="18">
         <v>3</v>
@@ -2961,19 +2963,19 @@
     </row>
     <row r="41" spans="1:11" ht="14.25">
       <c r="A41" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B41" s="18">
         <v>10</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F41" s="18">
         <v>4</v>
@@ -3009,8 +3011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3033,40 +3035,40 @@
   <sheetData>
     <row r="1" spans="1:1024" s="1" customFormat="1" ht="35.25" customHeight="1">
       <c r="A1" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C1" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="F1" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="G1" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="H1" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="I1" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="J1" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="K1" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="L1" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="K1" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="AMG1"/>
       <c r="AMH1"/>
@@ -3127,7 +3129,7 @@
         <v>19</v>
       </c>
       <c r="E3" s="22">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F3">
         <v>146300</v>
@@ -3167,7 +3169,7 @@
         <v>56</v>
       </c>
       <c r="E4" s="22">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F4">
         <v>198550</v>
@@ -3286,7 +3288,7 @@
         <v>57</v>
       </c>
       <c r="E7" s="22">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F7">
         <v>154660</v>
@@ -3326,7 +3328,7 @@
         <v>55</v>
       </c>
       <c r="E8" s="22">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F8">
         <v>51414</v>
@@ -3604,7 +3606,7 @@
         <v>63</v>
       </c>
       <c r="E15" s="22">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F15">
         <v>135432</v>
@@ -3644,7 +3646,7 @@
         <v>48</v>
       </c>
       <c r="E16" s="22">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F16">
         <v>56430</v>
@@ -3803,7 +3805,7 @@
         <v>33</v>
       </c>
       <c r="E20" s="22">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F20">
         <v>22572</v>
@@ -3922,7 +3924,7 @@
         <v>72</v>
       </c>
       <c r="E23" s="22">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F23">
         <v>123393.60000000001</v>
@@ -3962,7 +3964,7 @@
         <v>33</v>
       </c>
       <c r="E24" s="22">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F24">
         <v>30305</v>
@@ -4041,7 +4043,7 @@
         <v>38</v>
       </c>
       <c r="E26" s="22">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F26">
         <v>391875</v>
@@ -4121,7 +4123,7 @@
         <v>48</v>
       </c>
       <c r="E28" s="22">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F28">
         <v>16929</v>
@@ -4240,7 +4242,7 @@
         <v>45</v>
       </c>
       <c r="E31" s="22">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F31">
         <v>49658.400000000001</v>
@@ -4280,7 +4282,7 @@
         <v>56</v>
       </c>
       <c r="E32" s="22">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F32">
         <v>6186.4</v>
@@ -4359,7 +4361,7 @@
         <v>60</v>
       </c>
       <c r="E34" s="22">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F34">
         <v>116622</v>
@@ -4399,7 +4401,7 @@
         <v>60</v>
       </c>
       <c r="E35" s="22">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F35">
         <v>52366.6</v>
@@ -4598,7 +4600,7 @@
         <v>44</v>
       </c>
       <c r="E40" s="22">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F40">
         <v>146300</v>
@@ -4691,24 +4693,24 @@
     <row r="1" spans="1:5">
       <c r="A1" s="26"/>
       <c r="B1" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="E1" s="27" t="s">
         <v>63</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="54">
       <c r="A2" s="28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="29"/>
@@ -4716,79 +4718,79 @@
     </row>
     <row r="3" spans="1:5" ht="67.5">
       <c r="A3" s="28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B3" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="29" t="s">
         <v>92</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>94</v>
       </c>
       <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:5" ht="67.5">
       <c r="A4" s="28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:5" ht="54">
       <c r="A5" s="28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="54">
       <c r="A6" s="28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E6" s="27"/>
     </row>
     <row r="7" spans="1:5" ht="54">
       <c r="A7" s="28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
     </row>
     <row r="8" spans="1:5" ht="54">
       <c r="A8" s="28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -4796,36 +4798,36 @@
     </row>
     <row r="9" spans="1:5" ht="54">
       <c r="A9" s="28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E9" s="27"/>
     </row>
     <row r="10" spans="1:5" ht="54">
       <c r="A10" s="28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
     </row>
     <row r="11" spans="1:5" ht="27">
       <c r="A11" s="28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
@@ -4855,15 +4857,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B2">
         <v>9190000</v>
@@ -4871,7 +4873,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B3">
         <f>B2*1.1</f>
@@ -4880,7 +4882,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4">
         <f>B3*1.1</f>
@@ -4889,7 +4891,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B5">
         <f>B4*1.1</f>
@@ -4898,7 +4900,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B6">
         <f>B5*1.1</f>
@@ -4931,15 +4933,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" t="s">
         <v>107</v>
-      </c>
-      <c r="B1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B2">
         <v>600000</v>
@@ -4947,7 +4949,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B3">
         <v>600000</v>
@@ -4955,7 +4957,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4">
         <f>B3*1.1</f>
@@ -4964,7 +4966,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B5">
         <v>700000</v>
@@ -4972,7 +4974,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B6">
         <v>800000</v>
@@ -5018,43 +5020,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" t="s">
         <v>110</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>111</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>112</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>113</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>114</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>115</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>116</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>117</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>118</v>
-      </c>
-      <c r="M1" t="s">
-        <v>119</v>
-      </c>
-      <c r="N1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -6856,43 +6858,43 @@
   <sheetData>
     <row r="1" spans="1:14" s="30" customFormat="1" ht="15">
       <c r="B1" s="30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D1" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="G1" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="H1" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="I1" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="J1" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="K1" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="L1" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="M1" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="N1" s="30" t="s">
         <v>118</v>
-      </c>
-      <c r="M1" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="N1" s="30" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:14">
